--- a/planos/comprobar_manual/results_final/13_sensors.xlsx
+++ b/planos/comprobar_manual/results_final/13_sensors.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.404364955619707</v>
+        <v>2.39684661617124</v>
       </c>
       <c r="F2" t="n">
-        <v>1.776720283919925</v>
+        <v>1.771164560705666</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.06586979922267</v>
+        <v>21.99687083174543</v>
       </c>
       <c r="F3" t="n">
-        <v>1.767995243240031</v>
+        <v>1.76246680282965</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.06586979922267</v>
+        <v>21.99687083174543</v>
       </c>
       <c r="F4" t="n">
-        <v>1.767995243240031</v>
+        <v>1.76246680282965</v>
       </c>
       <c r="G4" t="n">
         <v>1.7</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.68732631400957</v>
+        <v>20.62263798907521</v>
       </c>
       <c r="F5" t="n">
-        <v>1.740762344417788</v>
+        <v>1.735319060038745</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.68732631400957</v>
+        <v>20.62263798907521</v>
       </c>
       <c r="F6" t="n">
-        <v>1.740762344417788</v>
+        <v>1.735319060038745</v>
       </c>
       <c r="G6" t="n">
         <v>1.7</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.388854233802786</v>
+        <v>3.378257441326855</v>
       </c>
       <c r="F7" t="n">
-        <v>1.755946916797978</v>
+        <v>1.750456150954332</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.86780527993158</v>
+        <v>25.78691783377795</v>
       </c>
       <c r="F8" t="n">
-        <v>2.110600058676458</v>
+        <v>2.104000308649327</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.86780527993158</v>
+        <v>25.78691783377795</v>
       </c>
       <c r="F9" t="n">
-        <v>2.110600058676458</v>
+        <v>2.104000308649327</v>
       </c>
       <c r="G9" t="n">
         <v>1.1</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.86780527993158</v>
+        <v>25.78691783377795</v>
       </c>
       <c r="F10" t="n">
-        <v>2.110600058676458</v>
+        <v>2.104000308649327</v>
       </c>
       <c r="G10" t="n">
         <v>1.7</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.86780527993158</v>
+        <v>25.78691783377795</v>
       </c>
       <c r="F11" t="n">
-        <v>2.110600058676458</v>
+        <v>2.104000308649327</v>
       </c>
       <c r="G11" t="n">
         <v>1.1</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.10448629075341</v>
+        <v>18.047874388656</v>
       </c>
       <c r="F12" t="n">
-        <v>1.461888953463795</v>
+        <v>1.45731769344671</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.10448629075341</v>
+        <v>18.047874388656</v>
       </c>
       <c r="F13" t="n">
-        <v>1.461888953463795</v>
+        <v>1.45731769344671</v>
       </c>
       <c r="G13" t="n">
         <v>1.7</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.6847735588045</v>
+        <v>25.60445844448679</v>
       </c>
       <c r="F14" t="n">
-        <v>1.850996498481243</v>
+        <v>1.845208516935023</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.6847735588045</v>
+        <v>25.60445844448679</v>
       </c>
       <c r="F15" t="n">
-        <v>1.850996498481243</v>
+        <v>1.845208516935023</v>
       </c>
       <c r="G15" t="n">
         <v>1.1</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.6847735588045</v>
+        <v>25.60445844448679</v>
       </c>
       <c r="F16" t="n">
-        <v>1.850996498481243</v>
+        <v>1.845208516935023</v>
       </c>
       <c r="G16" t="n">
         <v>1.7</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.6847735588045</v>
+        <v>25.60445844448679</v>
       </c>
       <c r="F17" t="n">
-        <v>1.850996498481243</v>
+        <v>1.845208516935023</v>
       </c>
       <c r="G17" t="n">
         <v>1.1</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.00467558397703</v>
+        <v>23.92961405932419</v>
       </c>
       <c r="F18" t="n">
-        <v>1.870235342602509</v>
+        <v>1.864387202069042</v>
       </c>
       <c r="G18" t="n">
         <v>0.1</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.00467558397703</v>
+        <v>23.92961405932419</v>
       </c>
       <c r="F19" t="n">
-        <v>1.870235342602509</v>
+        <v>1.864387202069042</v>
       </c>
       <c r="G19" t="n">
         <v>1.7</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.72054728241159</v>
+        <v>23.64637421398628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.879418319261807</v>
+        <v>0.876668418326029</v>
       </c>
       <c r="G20" t="n">
         <v>1.1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.72054728241159</v>
+        <v>23.64637421398628</v>
       </c>
       <c r="F21" t="n">
-        <v>0.879418319261807</v>
+        <v>0.876668418326029</v>
       </c>
       <c r="G21" t="n">
         <v>1.1</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.41416136623177</v>
+        <v>23.34094635257876</v>
       </c>
       <c r="F22" t="n">
-        <v>2.532821368094221</v>
+        <v>2.524901351308435</v>
       </c>
       <c r="G22" t="n">
         <v>0.1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.41416136623177</v>
+        <v>23.34094635257876</v>
       </c>
       <c r="F23" t="n">
-        <v>2.532821368094221</v>
+        <v>2.524901351308435</v>
       </c>
       <c r="G23" t="n">
         <v>1.7</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.40302493910269</v>
+        <v>15.35486038332063</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5644878066767713</v>
+        <v>0.562722679076156</v>
       </c>
       <c r="G24" t="n">
         <v>0.1</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.40302493910269</v>
+        <v>15.35486038332063</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5644878066767713</v>
+        <v>0.562722679076156</v>
       </c>
       <c r="G25" t="n">
         <v>1.7</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16.47848476280681</v>
+        <v>16.42695729325457</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5417341569735384</v>
+        <v>0.5400401789967607</v>
       </c>
       <c r="G26" t="n">
         <v>0.1</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>16.47848476280681</v>
+        <v>16.42695729325457</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5417341569735384</v>
+        <v>0.5400401789967607</v>
       </c>
       <c r="G27" t="n">
         <v>1.7</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.48733317567833</v>
+        <v>25.4076354484248</v>
       </c>
       <c r="F28" t="n">
-        <v>1.861167084467755</v>
+        <v>1.855347299963478</v>
       </c>
       <c r="G28" t="n">
         <v>0.1</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.48733317567833</v>
+        <v>25.4076354484248</v>
       </c>
       <c r="F29" t="n">
-        <v>1.861167084467755</v>
+        <v>1.855347299963478</v>
       </c>
       <c r="G29" t="n">
         <v>1.1</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.48733317567833</v>
+        <v>25.4076354484248</v>
       </c>
       <c r="F30" t="n">
-        <v>1.861167084467755</v>
+        <v>1.855347299963478</v>
       </c>
       <c r="G30" t="n">
         <v>1.7</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.48733317567833</v>
+        <v>25.4076354484248</v>
       </c>
       <c r="F31" t="n">
-        <v>1.861167084467755</v>
+        <v>1.855347299963478</v>
       </c>
       <c r="G31" t="n">
         <v>1.1</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.38239122723397</v>
+        <v>23.30927555735519</v>
       </c>
       <c r="F32" t="n">
-        <v>1.857931034179075</v>
+        <v>1.852121368656314</v>
       </c>
       <c r="G32" t="n">
         <v>0.1</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23.38239122723397</v>
+        <v>23.30927555735519</v>
       </c>
       <c r="F33" t="n">
-        <v>1.857931034179075</v>
+        <v>1.852121368656314</v>
       </c>
       <c r="G33" t="n">
         <v>1.7</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.431111147891324</v>
+        <v>5.414128311281282</v>
       </c>
       <c r="F34" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G34" t="n">
         <v>0.1</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.431111147891324</v>
+        <v>5.414128311281282</v>
       </c>
       <c r="F35" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G35" t="n">
         <v>0.6</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.431111147891324</v>
+        <v>5.414128311281282</v>
       </c>
       <c r="F36" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.431111147891324</v>
+        <v>5.414128311281282</v>
       </c>
       <c r="F37" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G37" t="n">
         <v>1.1</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.926501509835162</v>
+        <v>6.904842655833175</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G38" t="n">
         <v>0.1</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6.926501509835162</v>
+        <v>6.904842655833175</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G39" t="n">
         <v>0.6</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.926501509835162</v>
+        <v>6.904842655833175</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6.926501509835162</v>
+        <v>6.904842655833175</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G41" t="n">
         <v>1.1</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6.178806328863243</v>
+        <v>6.159485483557229</v>
       </c>
       <c r="F42" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G42" t="n">
         <v>0.1</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.178806328863243</v>
+        <v>6.159485483557229</v>
       </c>
       <c r="F43" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G43" t="n">
         <v>1.1</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.178806328863243</v>
+        <v>6.159485483557229</v>
       </c>
       <c r="F44" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G44" t="n">
         <v>1.7</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6.178806328863243</v>
+        <v>6.159485483557229</v>
       </c>
       <c r="F45" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G45" t="n">
         <v>1.1</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.178806328863243</v>
+        <v>6.159485483557229</v>
       </c>
       <c r="F46" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G46" t="n">
         <v>1.1</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.178806328863243</v>
+        <v>6.159485483557229</v>
       </c>
       <c r="F47" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.421891871778998</v>
+        <v>8.395557000385068</v>
       </c>
       <c r="F48" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G48" t="n">
         <v>0.1</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8.421891871778998</v>
+        <v>8.395557000385068</v>
       </c>
       <c r="F49" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G49" t="n">
         <v>0.6</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8.421891871778998</v>
+        <v>8.395557000385068</v>
       </c>
       <c r="F50" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8.421891871778998</v>
+        <v>8.395557000385068</v>
       </c>
       <c r="F51" t="n">
-        <v>2.709604677322369</v>
+        <v>2.701131867199409</v>
       </c>
       <c r="G51" t="n">
         <v>1.1</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>9.917282233722835</v>
+        <v>9.88627134493696</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G52" t="n">
         <v>0.1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.917282233722835</v>
+        <v>9.88627134493696</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G53" t="n">
         <v>0.6</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.917282233722835</v>
+        <v>9.88627134493696</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>9.917282233722835</v>
+        <v>9.88627134493696</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9307201821053193</v>
+        <v>0.927809862586541</v>
       </c>
       <c r="G55" t="n">
         <v>1.1</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9.169587052750918</v>
+        <v>9.140914172661015</v>
       </c>
       <c r="F56" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G56" t="n">
         <v>0.1</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>9.169587052750918</v>
+        <v>9.140914172661015</v>
       </c>
       <c r="F57" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G57" t="n">
         <v>1.1</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>9.169587052750918</v>
+        <v>9.140914172661015</v>
       </c>
       <c r="F58" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G58" t="n">
         <v>1.7</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.169587052750918</v>
+        <v>9.140914172661015</v>
       </c>
       <c r="F59" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G59" t="n">
         <v>1.1</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9.169587052750918</v>
+        <v>9.140914172661015</v>
       </c>
       <c r="F60" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G60" t="n">
         <v>1.1</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>9.169587052750918</v>
+        <v>9.140914172661015</v>
       </c>
       <c r="F61" t="n">
-        <v>1.820162429713844</v>
+        <v>1.814470864892975</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
